--- a/卒研アンケート.xlsx
+++ b/卒研アンケート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakauenaoki\Documents\卒研\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C515D65-B019-44BB-88D9-A635D04FEA9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8D70A-D98C-465A-BE19-29210A2FD5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{9BB13E88-A158-442D-A307-E8D99E2129E3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>質問</t>
     <rPh sb="0" eb="2">
@@ -185,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -380,13 +380,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +486,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -420,9 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -441,14 +519,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,16 +869,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DECFF44-72A4-4AA4-B1C8-07FA00A073C8}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="18" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -793,19 +898,19 @@
       <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="4"/>
@@ -818,7 +923,7 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -829,7 +934,7 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -840,7 +945,7 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -851,7 +956,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -862,7 +967,7 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -873,7 +978,7 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -884,7 +989,7 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -895,7 +1000,7 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -906,54 +1011,98 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="3"/>
-      <c r="B12" s="17">
+      <c r="B12" s="19">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
-      <c r="B13" s="17">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="24"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="25"/>
+      <c r="C20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="18">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="26"/>
+      <c r="C21" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="19"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒研アンケート.xlsx
+++ b/卒研アンケート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakauenaoki\Documents\卒研\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYNK\Desktop\卒研\sotuken_maeda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8D70A-D98C-465A-BE19-29210A2FD5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B074601A-3AA5-48F1-BC16-D090E6EA9DBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{9BB13E88-A158-442D-A307-E8D99E2129E3}"/>
+    <workbookView xWindow="20850" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{9BB13E88-A158-442D-A307-E8D99E2129E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>質問</t>
     <rPh sb="0" eb="2">
@@ -119,30 +119,143 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アナログ版よりデジタル版のほうが
-プレイしやすいと感じた</t>
+    <t>タスク工数の管理がしやすいと思った</t>
+    <rPh sb="3" eb="5">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーンダウンチャートは振り返りの役に
+立った</t>
+    <rPh sb="11" eb="12">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰がどのストーリーを担当しているか
+わかりやすい</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗記録表は振り返りの役に立つと思う</t>
+    <rPh sb="0" eb="5">
+      <t>シンチョクキロクヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームは楽しかったですか</t>
     <rPh sb="4" eb="5">
-      <t>バン</t>
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんばん方式について理解を深められたと思いますか</t>
+    <rPh sb="4" eb="6">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクが見積もり以上にかかると思いましたか</t>
+    <rPh sb="4" eb="6">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先ほどのゲームの経験を活かせたと思いますか（二回目限定）</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイケン</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>バン</t>
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ニカイメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見える化されていることにより作業効率が
+上がったと思いますか</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
     </rPh>
     <rPh sb="25" eb="26">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このシステムはカンバン方式について学べる
-システムだと感じた</t>
-    <rPh sb="11" eb="13">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>マナ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カン</t>
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -464,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,6 +667,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,21 +994,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DECFF44-72A4-4AA4-B1C8-07FA00A073C8}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="15"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -892,7 +1017,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">
@@ -915,7 +1040,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="17">
         <v>1</v>
@@ -926,7 +1051,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="17">
         <v>2</v>
@@ -937,7 +1062,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="17">
         <v>3</v>
@@ -948,7 +1073,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="17">
         <v>4</v>
@@ -959,7 +1084,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="17">
         <v>5</v>
@@ -970,7 +1095,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="17">
         <v>6</v>
@@ -981,7 +1106,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="17">
         <v>7</v>
@@ -992,7 +1117,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="17">
         <v>8</v>
@@ -1003,7 +1128,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="17">
         <v>9</v>
@@ -1014,7 +1139,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="19">
         <v>10</v>
@@ -1029,7 +1154,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -1040,11 +1165,11 @@
       <c r="H13" s="23"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="18" spans="2:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1052,7 +1177,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B19" s="24"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
@@ -1072,7 +1197,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="25"/>
       <c r="C20" s="27" t="s">
         <v>16</v>
@@ -1084,25 +1209,112 @@
       <c r="H20" s="28"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="26"/>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="24"/>
+      <c r="C22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="24"/>
+      <c r="C23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C28" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒研アンケート.xlsx
+++ b/卒研アンケート.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYNK\Desktop\卒研\sotuken_maeda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B074601A-3AA5-48F1-BC16-D090E6EA9DBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9E5C6-8C1D-41EB-B914-85220070D399}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20850" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{9BB13E88-A158-442D-A307-E8D99E2129E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9BB13E88-A158-442D-A307-E8D99E2129E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="アンケート結果" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="36">
   <si>
     <t>質問</t>
     <rPh sb="0" eb="2">
@@ -218,28 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>先ほどのゲームの経験を活かせたと思いますか（二回目限定）</t>
-    <rPh sb="0" eb="1">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ニカイメ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>見える化されていることにより作業効率が
 上がったと思いますか</t>
     <rPh sb="0" eb="1">
@@ -257,6 +236,90 @@
     <rPh sb="25" eb="26">
       <t>オモ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先ほどのゲームと比べゲームの進行はスムーズになったと思いますか</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先ほどのゲームの経験を活かせたと思いますか</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲームは楽しかったですか
+</t>
+    <rPh sb="4" eb="5">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aチーム
+アナログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bチーム
+アナログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aチーム
+デジタル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bチーム
+デジタル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cチーム
+デジタル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dチーム
+アナログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cチーム
+アナログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dチーム
+デジタル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -298,7 +361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -571,13 +634,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +753,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DECFF44-72A4-4AA4-B1C8-07FA00A073C8}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:BQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1005,7 +1109,9 @@
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="18" customWidth="1"/>
     <col min="3" max="3" width="38.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.625" style="1"/>
+    <col min="4" max="9" width="8.625" style="1"/>
+    <col min="10" max="10" width="37.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1169,7 +1275,7 @@
       <c r="A14" s="3"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="18" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1177,7 +1283,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B19" s="24"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
@@ -1197,7 +1303,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="25"/>
       <c r="C20" s="27" t="s">
         <v>16</v>
@@ -1209,7 +1315,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="26"/>
       <c r="C21" s="30" t="s">
         <v>19</v>
@@ -1221,7 +1327,7 @@
       <c r="H21" s="32"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="24"/>
       <c r="C22" s="27" t="s">
         <v>17</v>
@@ -1233,7 +1339,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="24"/>
       <c r="C23" s="29" t="s">
         <v>18</v>
@@ -1245,7 +1351,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1253,7 +1359,8 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B25" s="24"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
         <v>6</v>
@@ -1270,18 +1377,18 @@
       <c r="H25" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C26" s="27" t="s">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B26" s="24"/>
+      <c r="C26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H26" s="11"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B27" s="24"/>
       <c r="C27" s="30" t="s">
         <v>21</v>
       </c>
@@ -1290,18 +1397,18 @@
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C28" s="27" t="s">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="24"/>
+      <c r="C28" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H28" s="11"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:15" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="24"/>
       <c r="C29" s="29" t="s">
         <v>22</v>
       </c>
@@ -1310,15 +1417,1346 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C30" s="2" t="s">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="32" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="2:69" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B33" s="24"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="34"/>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="34"/>
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="34"/>
+      <c r="AM33" s="34"/>
+      <c r="AN33" s="34"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="34"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="34"/>
+      <c r="AS33" s="34"/>
+      <c r="AT33" s="34"/>
+      <c r="AU33" s="34"/>
+      <c r="AV33" s="34"/>
+      <c r="AW33" s="34"/>
+      <c r="AX33" s="34"/>
+      <c r="AY33" s="34"/>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BB33" s="34"/>
+      <c r="BC33" s="34"/>
+      <c r="BD33" s="34"/>
+      <c r="BE33" s="34"/>
+      <c r="BF33" s="34"/>
+      <c r="BG33" s="34"/>
+      <c r="BH33" s="34"/>
+      <c r="BI33" s="34"/>
+      <c r="BJ33" s="34"/>
+      <c r="BK33" s="34"/>
+      <c r="BL33" s="34"/>
+      <c r="BM33" s="34"/>
+      <c r="BN33" s="34"/>
+      <c r="BO33" s="34"/>
+      <c r="BP33" s="34"/>
+      <c r="BQ33" s="34"/>
+    </row>
+    <row r="34" spans="2:69" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B34" s="24"/>
+      <c r="C34" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="35"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="34"/>
+      <c r="AI34" s="34"/>
+      <c r="AJ34" s="34"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="34"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="34"/>
+      <c r="AT34" s="34"/>
+      <c r="AU34" s="34"/>
+      <c r="AV34" s="34"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="34"/>
+      <c r="AY34" s="34"/>
+      <c r="AZ34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BB34" s="34"/>
+      <c r="BC34" s="34"/>
+      <c r="BD34" s="34"/>
+      <c r="BE34" s="34"/>
+      <c r="BF34" s="34"/>
+      <c r="BG34" s="34"/>
+      <c r="BH34" s="34"/>
+      <c r="BI34" s="34"/>
+      <c r="BJ34" s="34"/>
+      <c r="BK34" s="34"/>
+      <c r="BL34" s="34"/>
+      <c r="BM34" s="34"/>
+      <c r="BN34" s="34"/>
+      <c r="BO34" s="34"/>
+      <c r="BP34" s="34"/>
+      <c r="BQ34" s="34"/>
+    </row>
+    <row r="35" spans="2:69" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B35" s="24"/>
+      <c r="C35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="35"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="34"/>
+      <c r="AK35" s="34"/>
+      <c r="AL35" s="34"/>
+      <c r="AM35" s="34"/>
+      <c r="AN35" s="34"/>
+      <c r="AO35" s="34"/>
+      <c r="AP35" s="34"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AS35" s="34"/>
+      <c r="AT35" s="34"/>
+      <c r="AU35" s="34"/>
+      <c r="AV35" s="34"/>
+      <c r="AW35" s="34"/>
+      <c r="AX35" s="34"/>
+      <c r="AY35" s="34"/>
+      <c r="AZ35" s="34"/>
+      <c r="BA35" s="34"/>
+      <c r="BB35" s="34"/>
+      <c r="BC35" s="34"/>
+      <c r="BD35" s="34"/>
+      <c r="BE35" s="34"/>
+      <c r="BF35" s="34"/>
+      <c r="BG35" s="34"/>
+      <c r="BH35" s="34"/>
+      <c r="BI35" s="34"/>
+      <c r="BJ35" s="34"/>
+      <c r="BK35" s="34"/>
+      <c r="BL35" s="34"/>
+      <c r="BM35" s="34"/>
+      <c r="BN35" s="34"/>
+      <c r="BO35" s="34"/>
+      <c r="BP35" s="34"/>
+      <c r="BQ35" s="34"/>
+    </row>
+    <row r="36" spans="2:69" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B36" s="24"/>
+      <c r="C36" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="35"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="34"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="34"/>
+      <c r="AT36" s="34"/>
+      <c r="AU36" s="34"/>
+      <c r="AV36" s="34"/>
+      <c r="AW36" s="34"/>
+      <c r="AX36" s="34"/>
+      <c r="AY36" s="34"/>
+      <c r="AZ36" s="34"/>
+      <c r="BA36" s="34"/>
+      <c r="BB36" s="34"/>
+      <c r="BC36" s="34"/>
+      <c r="BD36" s="34"/>
+      <c r="BE36" s="34"/>
+      <c r="BF36" s="34"/>
+      <c r="BG36" s="34"/>
+      <c r="BH36" s="34"/>
+      <c r="BI36" s="34"/>
+      <c r="BJ36" s="34"/>
+      <c r="BK36" s="34"/>
+      <c r="BL36" s="34"/>
+      <c r="BM36" s="34"/>
+      <c r="BN36" s="34"/>
+      <c r="BO36" s="34"/>
+      <c r="BP36" s="34"/>
+      <c r="BQ36" s="34"/>
+    </row>
+    <row r="37" spans="2:69" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B37" s="24"/>
+      <c r="C37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="35"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="34"/>
+      <c r="AJ37" s="34"/>
+      <c r="AK37" s="34"/>
+      <c r="AL37" s="34"/>
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="34"/>
+      <c r="AO37" s="34"/>
+      <c r="AP37" s="34"/>
+      <c r="AQ37" s="34"/>
+      <c r="AR37" s="34"/>
+      <c r="AS37" s="34"/>
+      <c r="AT37" s="34"/>
+      <c r="AU37" s="34"/>
+      <c r="AV37" s="34"/>
+      <c r="AW37" s="34"/>
+      <c r="AX37" s="34"/>
+      <c r="AY37" s="34"/>
+      <c r="AZ37" s="34"/>
+      <c r="BA37" s="34"/>
+      <c r="BB37" s="34"/>
+      <c r="BC37" s="34"/>
+      <c r="BD37" s="34"/>
+      <c r="BE37" s="34"/>
+      <c r="BF37" s="34"/>
+      <c r="BG37" s="34"/>
+      <c r="BH37" s="34"/>
+      <c r="BI37" s="34"/>
+      <c r="BJ37" s="34"/>
+      <c r="BK37" s="34"/>
+      <c r="BL37" s="34"/>
+      <c r="BM37" s="34"/>
+      <c r="BN37" s="34"/>
+      <c r="BO37" s="34"/>
+      <c r="BP37" s="34"/>
+      <c r="BQ37" s="34"/>
+    </row>
+    <row r="38" spans="2:69" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B38" s="24"/>
+      <c r="C38" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="35"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="34"/>
+      <c r="AK38" s="34"/>
+      <c r="AL38" s="34"/>
+      <c r="AM38" s="34"/>
+      <c r="AN38" s="34"/>
+      <c r="AO38" s="34"/>
+      <c r="AP38" s="34"/>
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="34"/>
+      <c r="AS38" s="34"/>
+      <c r="AT38" s="34"/>
+      <c r="AU38" s="34"/>
+      <c r="AV38" s="34"/>
+      <c r="AW38" s="34"/>
+      <c r="AX38" s="34"/>
+      <c r="AY38" s="34"/>
+      <c r="AZ38" s="34"/>
+      <c r="BA38" s="34"/>
+      <c r="BB38" s="34"/>
+      <c r="BC38" s="34"/>
+      <c r="BD38" s="34"/>
+      <c r="BE38" s="34"/>
+      <c r="BF38" s="34"/>
+      <c r="BG38" s="34"/>
+      <c r="BH38" s="34"/>
+      <c r="BI38" s="34"/>
+      <c r="BJ38" s="34"/>
+      <c r="BK38" s="34"/>
+      <c r="BL38" s="34"/>
+      <c r="BM38" s="34"/>
+      <c r="BN38" s="34"/>
+      <c r="BO38" s="34"/>
+      <c r="BP38" s="34"/>
+      <c r="BQ38" s="34"/>
+    </row>
+    <row r="39" spans="2:69" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="24"/>
+      <c r="C39" s="29" t="s">
         <v>24</v>
       </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="35"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="34"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="34"/>
+      <c r="AO39" s="34"/>
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="34"/>
+      <c r="AS39" s="34"/>
+      <c r="AT39" s="34"/>
+      <c r="AU39" s="34"/>
+      <c r="AV39" s="34"/>
+      <c r="AW39" s="34"/>
+      <c r="AX39" s="34"/>
+      <c r="AY39" s="34"/>
+      <c r="AZ39" s="34"/>
+      <c r="BA39" s="34"/>
+      <c r="BB39" s="34"/>
+      <c r="BC39" s="34"/>
+      <c r="BD39" s="34"/>
+      <c r="BE39" s="34"/>
+      <c r="BF39" s="34"/>
+      <c r="BG39" s="34"/>
+      <c r="BH39" s="34"/>
+      <c r="BI39" s="34"/>
+      <c r="BJ39" s="34"/>
+      <c r="BK39" s="34"/>
+      <c r="BL39" s="34"/>
+      <c r="BM39" s="34"/>
+      <c r="BN39" s="34"/>
+      <c r="BO39" s="34"/>
+      <c r="BP39" s="34"/>
+      <c r="BQ39" s="34"/>
+    </row>
+    <row r="40" spans="2:69" x14ac:dyDescent="0.4">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62DAB86-723F-4530-A7B0-B6E7F6E2F1AF}">
+  <dimension ref="B1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
+    <col min="9" max="9" width="38.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="37">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37">
+        <v>2</v>
+      </c>
+      <c r="E2" s="37">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37">
+        <v>4</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="37">
+        <v>1</v>
+      </c>
+      <c r="K2" s="37">
+        <v>2</v>
+      </c>
+      <c r="L2" s="37">
+        <v>3</v>
+      </c>
+      <c r="M2" s="37">
+        <v>4</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="34">
+        <v>4</v>
+      </c>
+      <c r="D3" s="34">
+        <v>3</v>
+      </c>
+      <c r="E3" s="34">
+        <v>4</v>
+      </c>
+      <c r="F3" s="34">
+        <v>3</v>
+      </c>
+      <c r="G3" s="39">
+        <f>AVERAGE(C3:F3)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="34">
+        <v>3</v>
+      </c>
+      <c r="K3" s="34">
+        <v>4</v>
+      </c>
+      <c r="L3" s="34">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34">
+        <v>4</v>
+      </c>
+      <c r="N3" s="39">
+        <f>AVERAGE(J3:M3)</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="34">
+        <v>3</v>
+      </c>
+      <c r="D4" s="34">
+        <v>2</v>
+      </c>
+      <c r="E4" s="34">
+        <v>3</v>
+      </c>
+      <c r="F4" s="34">
+        <v>3</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" ref="G4:G6" si="0">AVERAGE(C4:F4)</f>
+        <v>2.75</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="34">
+        <v>3</v>
+      </c>
+      <c r="K4" s="34">
+        <v>4</v>
+      </c>
+      <c r="L4" s="34">
+        <v>3</v>
+      </c>
+      <c r="M4" s="34">
+        <v>3</v>
+      </c>
+      <c r="N4" s="39">
+        <f t="shared" ref="N4:N7" si="1">AVERAGE(J4:M4)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="34">
+        <v>4</v>
+      </c>
+      <c r="D5" s="34">
+        <v>2</v>
+      </c>
+      <c r="E5" s="34">
+        <v>3</v>
+      </c>
+      <c r="F5" s="34">
+        <v>3</v>
+      </c>
+      <c r="G5" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="34">
+        <v>3</v>
+      </c>
+      <c r="K5" s="34">
+        <v>3</v>
+      </c>
+      <c r="L5" s="34">
+        <v>4</v>
+      </c>
+      <c r="M5" s="34">
+        <v>3</v>
+      </c>
+      <c r="N5" s="39">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34">
+        <v>2</v>
+      </c>
+      <c r="F6" s="34">
+        <v>2</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="34">
+        <v>3</v>
+      </c>
+      <c r="K6" s="34">
+        <v>4</v>
+      </c>
+      <c r="L6" s="34">
+        <v>2</v>
+      </c>
+      <c r="M6" s="34">
+        <v>3</v>
+      </c>
+      <c r="N6" s="39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="34">
+        <v>3</v>
+      </c>
+      <c r="K7" s="34">
+        <v>4</v>
+      </c>
+      <c r="L7" s="34">
+        <v>3</v>
+      </c>
+      <c r="M7" s="34">
+        <v>3</v>
+      </c>
+      <c r="N7" s="39">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37">
+        <v>2</v>
+      </c>
+      <c r="E10" s="37">
+        <v>3</v>
+      </c>
+      <c r="F10" s="37">
+        <v>4</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="37">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37">
+        <v>2</v>
+      </c>
+      <c r="L10" s="37">
+        <v>3</v>
+      </c>
+      <c r="M10" s="37">
+        <v>4</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="34">
+        <v>4</v>
+      </c>
+      <c r="D11" s="34">
+        <v>3</v>
+      </c>
+      <c r="E11" s="34">
+        <v>3</v>
+      </c>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39">
+        <f>AVERAGE(C11:F11)</f>
+        <v>3.25</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="34">
+        <v>3</v>
+      </c>
+      <c r="K11" s="34">
+        <v>4</v>
+      </c>
+      <c r="L11" s="34">
+        <v>3</v>
+      </c>
+      <c r="M11" s="34">
+        <v>3</v>
+      </c>
+      <c r="N11" s="39">
+        <f>AVERAGE(J11:M11)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="34">
+        <v>3</v>
+      </c>
+      <c r="D12" s="34">
+        <v>3</v>
+      </c>
+      <c r="E12" s="34">
+        <v>2</v>
+      </c>
+      <c r="F12" s="34">
+        <v>3</v>
+      </c>
+      <c r="G12" s="39">
+        <f t="shared" ref="G12:G15" si="2">AVERAGE(C12:F12)</f>
+        <v>2.75</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="34">
+        <v>3</v>
+      </c>
+      <c r="K12" s="34">
+        <v>3</v>
+      </c>
+      <c r="L12" s="34">
+        <v>3</v>
+      </c>
+      <c r="M12" s="34">
+        <v>3</v>
+      </c>
+      <c r="N12" s="39">
+        <f t="shared" ref="N12:N16" si="3">AVERAGE(J12:M12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="34">
+        <v>2</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="34">
+        <v>1</v>
+      </c>
+      <c r="F13" s="34">
+        <v>2</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="34">
+        <v>2</v>
+      </c>
+      <c r="K13" s="34">
+        <v>3</v>
+      </c>
+      <c r="L13" s="34">
+        <v>2</v>
+      </c>
+      <c r="M13" s="34">
+        <v>2</v>
+      </c>
+      <c r="N13" s="39">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="34">
+        <v>2</v>
+      </c>
+      <c r="D14" s="34">
+        <v>3</v>
+      </c>
+      <c r="E14" s="34">
+        <v>1</v>
+      </c>
+      <c r="F14" s="34">
+        <v>3</v>
+      </c>
+      <c r="G14" s="39">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="34">
+        <v>3</v>
+      </c>
+      <c r="K14" s="34">
+        <v>3</v>
+      </c>
+      <c r="L14" s="34">
+        <v>3</v>
+      </c>
+      <c r="M14" s="34">
+        <v>2</v>
+      </c>
+      <c r="N14" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1</v>
+      </c>
+      <c r="E15" s="34">
+        <v>3</v>
+      </c>
+      <c r="F15" s="34">
+        <v>1</v>
+      </c>
+      <c r="G15" s="39">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="40">
+        <v>0</v>
+      </c>
+      <c r="E16" s="40">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="39">
+        <f>AVERAGE(C16:F16)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="39"/>
+    </row>
+    <row r="17" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="37">
+        <v>1</v>
+      </c>
+      <c r="D18" s="37">
+        <v>2</v>
+      </c>
+      <c r="E18" s="37">
+        <v>3</v>
+      </c>
+      <c r="F18" s="37">
+        <v>4</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="37">
+        <v>1</v>
+      </c>
+      <c r="K18" s="37">
+        <v>2</v>
+      </c>
+      <c r="L18" s="37">
+        <v>3</v>
+      </c>
+      <c r="M18" s="37">
+        <v>4</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="39"/>
+    </row>
+    <row r="20" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="39"/>
+    </row>
+    <row r="21" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="39"/>
+    </row>
+    <row r="22" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="39"/>
+    </row>
+    <row r="24" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="37">
+        <v>1</v>
+      </c>
+      <c r="D26" s="37">
+        <v>2</v>
+      </c>
+      <c r="E26" s="37">
+        <v>3</v>
+      </c>
+      <c r="F26" s="37">
+        <v>4</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="37">
+        <v>1</v>
+      </c>
+      <c r="K26" s="37">
+        <v>2</v>
+      </c>
+      <c r="L26" s="37">
+        <v>3</v>
+      </c>
+      <c r="M26" s="37">
+        <v>4</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B27" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="39"/>
+    </row>
+    <row r="28" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="39"/>
+    </row>
+    <row r="29" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="39"/>
+    </row>
+    <row r="30" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="39"/>
+    </row>
+    <row r="31" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="39"/>
+    </row>
+    <row r="32" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/卒研アンケート.xlsx
+++ b/卒研アンケート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYNK\Desktop\卒研\sotuken_maeda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9E5C6-8C1D-41EB-B914-85220070D399}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6D6A2-2E24-4659-9067-9D22C9B570DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9BB13E88-A158-442D-A307-E8D99E2129E3}"/>
   </bookViews>
@@ -361,7 +361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -645,13 +645,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +794,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1907,7 +1921,7 @@
   <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2301,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="39">
-        <f t="shared" ref="N12:N16" si="3">AVERAGE(J12:M12)</f>
+        <f t="shared" ref="N12:N32" si="3">AVERAGE(J12:M12)</f>
         <v>3</v>
       </c>
     </row>
@@ -2433,7 +2447,7 @@
       <c r="F16" s="40">
         <v>1</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="41">
         <f>AVERAGE(C16:F16)</f>
         <v>0.75</v>
       </c>
@@ -2445,9 +2459,12 @@
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="39"/>
-    </row>
-    <row r="17" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G17" s="43"/>
+      <c r="N17" s="43"/>
+    </row>
     <row r="18" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B18" s="42" t="s">
         <v>34</v>
@@ -2491,77 +2508,165 @@
       <c r="B19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="39"/>
+      <c r="C19" s="34">
+        <v>4</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1</v>
+      </c>
+      <c r="E19" s="34">
+        <v>3</v>
+      </c>
+      <c r="F19" s="34">
+        <v>4</v>
+      </c>
+      <c r="G19" s="39">
+        <f t="shared" ref="G18:G32" si="4">AVERAGE(C19:F19)</f>
+        <v>3</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="39"/>
+      <c r="J19" s="34">
+        <v>1</v>
+      </c>
+      <c r="K19" s="34">
+        <v>4</v>
+      </c>
+      <c r="L19" s="34">
+        <v>3</v>
+      </c>
+      <c r="M19" s="34">
+        <v>4</v>
+      </c>
+      <c r="N19" s="39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="39"/>
+      <c r="C20" s="34">
+        <v>4</v>
+      </c>
+      <c r="D20" s="34">
+        <v>1</v>
+      </c>
+      <c r="E20" s="34">
+        <v>3</v>
+      </c>
+      <c r="F20" s="34">
+        <v>3</v>
+      </c>
+      <c r="G20" s="39">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="39"/>
+      <c r="J20" s="34">
+        <v>1</v>
+      </c>
+      <c r="K20" s="34">
+        <v>3</v>
+      </c>
+      <c r="L20" s="34">
+        <v>4</v>
+      </c>
+      <c r="M20" s="34">
+        <v>3</v>
+      </c>
+      <c r="N20" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="21" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B21" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="39"/>
+      <c r="C21" s="34">
+        <v>3</v>
+      </c>
+      <c r="D21" s="34">
+        <v>1</v>
+      </c>
+      <c r="E21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="34">
+        <v>4</v>
+      </c>
+      <c r="G21" s="39">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="39"/>
+      <c r="J21" s="34">
+        <v>2</v>
+      </c>
+      <c r="K21" s="34">
+        <v>3</v>
+      </c>
+      <c r="L21" s="34">
+        <v>3</v>
+      </c>
+      <c r="M21" s="34">
+        <v>4</v>
+      </c>
+      <c r="N21" s="39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="39"/>
+      <c r="C22" s="34">
+        <v>4</v>
+      </c>
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34">
+        <v>3</v>
+      </c>
+      <c r="F22" s="34">
+        <v>3</v>
+      </c>
+      <c r="G22" s="39">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="39"/>
+      <c r="J22" s="34">
+        <v>2</v>
+      </c>
+      <c r="K22" s="34">
+        <v>3</v>
+      </c>
+      <c r="L22" s="34">
+        <v>4</v>
+      </c>
+      <c r="M22" s="34">
+        <v>2</v>
+      </c>
+      <c r="N22" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="23" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B23" s="33" t="s">
@@ -2576,17 +2681,28 @@
       <c r="I23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="39"/>
+      <c r="J23" s="34">
+        <v>2</v>
+      </c>
+      <c r="K23" s="34">
+        <v>3</v>
+      </c>
+      <c r="L23" s="34">
+        <v>3</v>
+      </c>
+      <c r="M23" s="34">
+        <v>4</v>
+      </c>
+      <c r="N23" s="39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
@@ -2595,13 +2711,27 @@
       <c r="I24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="41"/>
-    </row>
-    <row r="25" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+      <c r="J24" s="40">
+        <v>2</v>
+      </c>
+      <c r="K24" s="40">
+        <v>3</v>
+      </c>
+      <c r="L24" s="40">
+        <v>3</v>
+      </c>
+      <c r="M24" s="40">
+        <v>4</v>
+      </c>
+      <c r="N24" s="41">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G25" s="43"/>
+      <c r="N25" s="43"/>
+    </row>
     <row r="26" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B26" s="42" t="s">
         <v>33</v>
@@ -2645,87 +2775,186 @@
       <c r="B27" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="39"/>
+      <c r="C27" s="34">
+        <v>4</v>
+      </c>
+      <c r="D27" s="34">
+        <v>3</v>
+      </c>
+      <c r="E27" s="34">
+        <v>4</v>
+      </c>
+      <c r="F27" s="34">
+        <v>4</v>
+      </c>
+      <c r="G27" s="39">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="39"/>
+      <c r="J27" s="34">
+        <v>4</v>
+      </c>
+      <c r="K27" s="34">
+        <v>4</v>
+      </c>
+      <c r="L27" s="34">
+        <v>4</v>
+      </c>
+      <c r="M27" s="34">
+        <v>3</v>
+      </c>
+      <c r="N27" s="39">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
     </row>
     <row r="28" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="34">
+        <v>3</v>
+      </c>
+      <c r="D28" s="34">
+        <v>3</v>
+      </c>
+      <c r="E28" s="34">
+        <v>4</v>
+      </c>
+      <c r="F28" s="34">
+        <v>2</v>
+      </c>
+      <c r="G28" s="39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="39"/>
+      <c r="J28" s="34">
+        <v>2</v>
+      </c>
+      <c r="K28" s="34">
+        <v>3</v>
+      </c>
+      <c r="L28" s="34">
+        <v>3</v>
+      </c>
+      <c r="M28" s="34">
+        <v>3</v>
+      </c>
+      <c r="N28" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="29" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B29" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="39"/>
+      <c r="C29" s="34">
+        <v>3</v>
+      </c>
+      <c r="D29" s="34">
+        <v>3</v>
+      </c>
+      <c r="E29" s="34">
+        <v>4</v>
+      </c>
+      <c r="F29" s="34">
+        <v>3</v>
+      </c>
+      <c r="G29" s="39">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="39"/>
+      <c r="J29" s="34">
+        <v>2</v>
+      </c>
+      <c r="K29" s="34">
+        <v>3</v>
+      </c>
+      <c r="L29" s="34">
+        <v>3</v>
+      </c>
+      <c r="M29" s="34">
+        <v>3</v>
+      </c>
+      <c r="N29" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="30" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="39"/>
+      <c r="C30" s="34">
+        <v>4</v>
+      </c>
+      <c r="D30" s="34">
+        <v>2</v>
+      </c>
+      <c r="E30" s="34">
+        <v>4</v>
+      </c>
+      <c r="F30" s="34">
+        <v>3</v>
+      </c>
+      <c r="G30" s="39">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="39"/>
+      <c r="J30" s="34">
+        <v>2</v>
+      </c>
+      <c r="K30" s="34">
+        <v>3</v>
+      </c>
+      <c r="L30" s="34">
+        <v>2</v>
+      </c>
+      <c r="M30" s="34">
+        <v>4</v>
+      </c>
+      <c r="N30" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="31" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="39"/>
+      <c r="C31" s="34">
+        <v>3</v>
+      </c>
+      <c r="D31" s="34">
+        <v>4</v>
+      </c>
+      <c r="E31" s="34">
+        <v>4</v>
+      </c>
+      <c r="F31" s="34">
+        <v>4</v>
+      </c>
+      <c r="G31" s="39">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="33" t="s">
         <v>25</v>
@@ -2740,23 +2969,35 @@
       <c r="B32" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
+      <c r="C32" s="40">
+        <v>4</v>
+      </c>
+      <c r="D32" s="40">
+        <v>2</v>
+      </c>
+      <c r="E32" s="40">
+        <v>4</v>
+      </c>
+      <c r="F32" s="40">
+        <v>2</v>
+      </c>
+      <c r="G32" s="41">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
       <c r="N32" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/卒研アンケート.xlsx
+++ b/卒研アンケート.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYNK\Desktop\卒研\sotuken_maeda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6D6A2-2E24-4659-9067-9D22C9B570DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9412850-9DB3-4585-AE5D-E1EDF7F4181C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9BB13E88-A158-442D-A307-E8D99E2129E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BB13E88-A158-442D-A307-E8D99E2129E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="アンケート結果" sheetId="2" r:id="rId2"/>
+    <sheet name="アンケート結果" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1111,10 +1111,1096 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62DAB86-723F-4530-A7B0-B6E7F6E2F1AF}">
+  <dimension ref="B1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="38.375" customWidth="1"/>
+    <col min="9" max="9" width="38.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="37">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37">
+        <v>2</v>
+      </c>
+      <c r="E2" s="37">
+        <v>3</v>
+      </c>
+      <c r="F2" s="37">
+        <v>4</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="37">
+        <v>1</v>
+      </c>
+      <c r="K2" s="37">
+        <v>2</v>
+      </c>
+      <c r="L2" s="37">
+        <v>3</v>
+      </c>
+      <c r="M2" s="37">
+        <v>4</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="34">
+        <v>4</v>
+      </c>
+      <c r="D3" s="34">
+        <v>3</v>
+      </c>
+      <c r="E3" s="34">
+        <v>4</v>
+      </c>
+      <c r="F3" s="34">
+        <v>3</v>
+      </c>
+      <c r="G3" s="39">
+        <f>AVERAGE(C3:F3)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="34">
+        <v>3</v>
+      </c>
+      <c r="K3" s="34">
+        <v>4</v>
+      </c>
+      <c r="L3" s="34">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34">
+        <v>4</v>
+      </c>
+      <c r="N3" s="39">
+        <f>AVERAGE(J3:M3)</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="34">
+        <v>3</v>
+      </c>
+      <c r="D4" s="34">
+        <v>2</v>
+      </c>
+      <c r="E4" s="34">
+        <v>3</v>
+      </c>
+      <c r="F4" s="34">
+        <v>3</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" ref="G4:G6" si="0">AVERAGE(C4:F4)</f>
+        <v>2.75</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="34">
+        <v>3</v>
+      </c>
+      <c r="K4" s="34">
+        <v>4</v>
+      </c>
+      <c r="L4" s="34">
+        <v>3</v>
+      </c>
+      <c r="M4" s="34">
+        <v>3</v>
+      </c>
+      <c r="N4" s="39">
+        <f t="shared" ref="N4:N7" si="1">AVERAGE(J4:M4)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="34">
+        <v>4</v>
+      </c>
+      <c r="D5" s="34">
+        <v>2</v>
+      </c>
+      <c r="E5" s="34">
+        <v>3</v>
+      </c>
+      <c r="F5" s="34">
+        <v>3</v>
+      </c>
+      <c r="G5" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="34">
+        <v>3</v>
+      </c>
+      <c r="K5" s="34">
+        <v>3</v>
+      </c>
+      <c r="L5" s="34">
+        <v>4</v>
+      </c>
+      <c r="M5" s="34">
+        <v>3</v>
+      </c>
+      <c r="N5" s="39">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34">
+        <v>2</v>
+      </c>
+      <c r="F6" s="34">
+        <v>2</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="34">
+        <v>3</v>
+      </c>
+      <c r="K6" s="34">
+        <v>4</v>
+      </c>
+      <c r="L6" s="34">
+        <v>2</v>
+      </c>
+      <c r="M6" s="34">
+        <v>3</v>
+      </c>
+      <c r="N6" s="39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="34">
+        <v>3</v>
+      </c>
+      <c r="K7" s="34">
+        <v>4</v>
+      </c>
+      <c r="L7" s="34">
+        <v>3</v>
+      </c>
+      <c r="M7" s="34">
+        <v>3</v>
+      </c>
+      <c r="N7" s="39">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37">
+        <v>2</v>
+      </c>
+      <c r="E10" s="37">
+        <v>3</v>
+      </c>
+      <c r="F10" s="37">
+        <v>4</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="37">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37">
+        <v>2</v>
+      </c>
+      <c r="L10" s="37">
+        <v>3</v>
+      </c>
+      <c r="M10" s="37">
+        <v>4</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="34">
+        <v>4</v>
+      </c>
+      <c r="D11" s="34">
+        <v>3</v>
+      </c>
+      <c r="E11" s="34">
+        <v>3</v>
+      </c>
+      <c r="F11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39">
+        <f>AVERAGE(C11:F11)</f>
+        <v>3.25</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="34">
+        <v>3</v>
+      </c>
+      <c r="K11" s="34">
+        <v>4</v>
+      </c>
+      <c r="L11" s="34">
+        <v>3</v>
+      </c>
+      <c r="M11" s="34">
+        <v>3</v>
+      </c>
+      <c r="N11" s="39">
+        <f>AVERAGE(J11:M11)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="34">
+        <v>3</v>
+      </c>
+      <c r="D12" s="34">
+        <v>3</v>
+      </c>
+      <c r="E12" s="34">
+        <v>2</v>
+      </c>
+      <c r="F12" s="34">
+        <v>3</v>
+      </c>
+      <c r="G12" s="39">
+        <f t="shared" ref="G12:G15" si="2">AVERAGE(C12:F12)</f>
+        <v>2.75</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="34">
+        <v>3</v>
+      </c>
+      <c r="K12" s="34">
+        <v>3</v>
+      </c>
+      <c r="L12" s="34">
+        <v>3</v>
+      </c>
+      <c r="M12" s="34">
+        <v>3</v>
+      </c>
+      <c r="N12" s="39">
+        <f t="shared" ref="N12:N30" si="3">AVERAGE(J12:M12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="34">
+        <v>2</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="34">
+        <v>1</v>
+      </c>
+      <c r="F13" s="34">
+        <v>2</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="34">
+        <v>2</v>
+      </c>
+      <c r="K13" s="34">
+        <v>3</v>
+      </c>
+      <c r="L13" s="34">
+        <v>2</v>
+      </c>
+      <c r="M13" s="34">
+        <v>2</v>
+      </c>
+      <c r="N13" s="39">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="34">
+        <v>2</v>
+      </c>
+      <c r="D14" s="34">
+        <v>3</v>
+      </c>
+      <c r="E14" s="34">
+        <v>1</v>
+      </c>
+      <c r="F14" s="34">
+        <v>3</v>
+      </c>
+      <c r="G14" s="39">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="34">
+        <v>3</v>
+      </c>
+      <c r="K14" s="34">
+        <v>3</v>
+      </c>
+      <c r="L14" s="34">
+        <v>3</v>
+      </c>
+      <c r="M14" s="34">
+        <v>2</v>
+      </c>
+      <c r="N14" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1</v>
+      </c>
+      <c r="E15" s="34">
+        <v>3</v>
+      </c>
+      <c r="F15" s="34">
+        <v>1</v>
+      </c>
+      <c r="G15" s="39">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="40">
+        <v>0</v>
+      </c>
+      <c r="E16" s="40">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="41">
+        <f>AVERAGE(C16:F16)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G17" s="43"/>
+      <c r="N17" s="43"/>
+    </row>
+    <row r="18" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="37">
+        <v>1</v>
+      </c>
+      <c r="D18" s="37">
+        <v>2</v>
+      </c>
+      <c r="E18" s="37">
+        <v>3</v>
+      </c>
+      <c r="F18" s="37">
+        <v>4</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="37">
+        <v>1</v>
+      </c>
+      <c r="K18" s="37">
+        <v>2</v>
+      </c>
+      <c r="L18" s="37">
+        <v>3</v>
+      </c>
+      <c r="M18" s="37">
+        <v>4</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="34">
+        <v>4</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1</v>
+      </c>
+      <c r="E19" s="34">
+        <v>3</v>
+      </c>
+      <c r="F19" s="34">
+        <v>4</v>
+      </c>
+      <c r="G19" s="39">
+        <f t="shared" ref="G19:G32" si="4">AVERAGE(C19:F19)</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="34">
+        <v>1</v>
+      </c>
+      <c r="K19" s="34">
+        <v>4</v>
+      </c>
+      <c r="L19" s="34">
+        <v>3</v>
+      </c>
+      <c r="M19" s="34">
+        <v>4</v>
+      </c>
+      <c r="N19" s="39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="34">
+        <v>4</v>
+      </c>
+      <c r="D20" s="34">
+        <v>1</v>
+      </c>
+      <c r="E20" s="34">
+        <v>3</v>
+      </c>
+      <c r="F20" s="34">
+        <v>3</v>
+      </c>
+      <c r="G20" s="39">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="34">
+        <v>1</v>
+      </c>
+      <c r="K20" s="34">
+        <v>3</v>
+      </c>
+      <c r="L20" s="34">
+        <v>4</v>
+      </c>
+      <c r="M20" s="34">
+        <v>3</v>
+      </c>
+      <c r="N20" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="34">
+        <v>3</v>
+      </c>
+      <c r="D21" s="34">
+        <v>1</v>
+      </c>
+      <c r="E21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="34">
+        <v>4</v>
+      </c>
+      <c r="G21" s="39">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="34">
+        <v>2</v>
+      </c>
+      <c r="K21" s="34">
+        <v>3</v>
+      </c>
+      <c r="L21" s="34">
+        <v>3</v>
+      </c>
+      <c r="M21" s="34">
+        <v>4</v>
+      </c>
+      <c r="N21" s="39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="34">
+        <v>4</v>
+      </c>
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34">
+        <v>3</v>
+      </c>
+      <c r="F22" s="34">
+        <v>3</v>
+      </c>
+      <c r="G22" s="39">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="34">
+        <v>2</v>
+      </c>
+      <c r="K22" s="34">
+        <v>3</v>
+      </c>
+      <c r="L22" s="34">
+        <v>4</v>
+      </c>
+      <c r="M22" s="34">
+        <v>2</v>
+      </c>
+      <c r="N22" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="34">
+        <v>2</v>
+      </c>
+      <c r="K23" s="34">
+        <v>3</v>
+      </c>
+      <c r="L23" s="34">
+        <v>3</v>
+      </c>
+      <c r="M23" s="34">
+        <v>4</v>
+      </c>
+      <c r="N23" s="39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="40">
+        <v>2</v>
+      </c>
+      <c r="K24" s="40">
+        <v>3</v>
+      </c>
+      <c r="L24" s="40">
+        <v>3</v>
+      </c>
+      <c r="M24" s="40">
+        <v>4</v>
+      </c>
+      <c r="N24" s="41">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G25" s="43"/>
+      <c r="N25" s="43"/>
+    </row>
+    <row r="26" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="37">
+        <v>1</v>
+      </c>
+      <c r="D26" s="37">
+        <v>2</v>
+      </c>
+      <c r="E26" s="37">
+        <v>3</v>
+      </c>
+      <c r="F26" s="37">
+        <v>4</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="37">
+        <v>1</v>
+      </c>
+      <c r="K26" s="37">
+        <v>2</v>
+      </c>
+      <c r="L26" s="37">
+        <v>3</v>
+      </c>
+      <c r="M26" s="37">
+        <v>4</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B27" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="34">
+        <v>4</v>
+      </c>
+      <c r="D27" s="34">
+        <v>3</v>
+      </c>
+      <c r="E27" s="34">
+        <v>4</v>
+      </c>
+      <c r="F27" s="34">
+        <v>4</v>
+      </c>
+      <c r="G27" s="39">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="34">
+        <v>4</v>
+      </c>
+      <c r="K27" s="34">
+        <v>4</v>
+      </c>
+      <c r="L27" s="34">
+        <v>4</v>
+      </c>
+      <c r="M27" s="34">
+        <v>3</v>
+      </c>
+      <c r="N27" s="39">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="34">
+        <v>3</v>
+      </c>
+      <c r="D28" s="34">
+        <v>3</v>
+      </c>
+      <c r="E28" s="34">
+        <v>4</v>
+      </c>
+      <c r="F28" s="34">
+        <v>2</v>
+      </c>
+      <c r="G28" s="39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="34">
+        <v>2</v>
+      </c>
+      <c r="K28" s="34">
+        <v>3</v>
+      </c>
+      <c r="L28" s="34">
+        <v>3</v>
+      </c>
+      <c r="M28" s="34">
+        <v>3</v>
+      </c>
+      <c r="N28" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="34">
+        <v>3</v>
+      </c>
+      <c r="D29" s="34">
+        <v>3</v>
+      </c>
+      <c r="E29" s="34">
+        <v>4</v>
+      </c>
+      <c r="F29" s="34">
+        <v>3</v>
+      </c>
+      <c r="G29" s="39">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="34">
+        <v>2</v>
+      </c>
+      <c r="K29" s="34">
+        <v>3</v>
+      </c>
+      <c r="L29" s="34">
+        <v>3</v>
+      </c>
+      <c r="M29" s="34">
+        <v>3</v>
+      </c>
+      <c r="N29" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="34">
+        <v>4</v>
+      </c>
+      <c r="D30" s="34">
+        <v>2</v>
+      </c>
+      <c r="E30" s="34">
+        <v>4</v>
+      </c>
+      <c r="F30" s="34">
+        <v>3</v>
+      </c>
+      <c r="G30" s="39">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="34">
+        <v>2</v>
+      </c>
+      <c r="K30" s="34">
+        <v>3</v>
+      </c>
+      <c r="L30" s="34">
+        <v>2</v>
+      </c>
+      <c r="M30" s="34">
+        <v>4</v>
+      </c>
+      <c r="N30" s="39">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="34">
+        <v>3</v>
+      </c>
+      <c r="D31" s="34">
+        <v>4</v>
+      </c>
+      <c r="E31" s="34">
+        <v>4</v>
+      </c>
+      <c r="F31" s="34">
+        <v>4</v>
+      </c>
+      <c r="G31" s="39">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="39"/>
+    </row>
+    <row r="32" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="40">
+        <v>4</v>
+      </c>
+      <c r="D32" s="40">
+        <v>2</v>
+      </c>
+      <c r="E32" s="40">
+        <v>4</v>
+      </c>
+      <c r="F32" s="40">
+        <v>2</v>
+      </c>
+      <c r="G32" s="41">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DECFF44-72A4-4AA4-B1C8-07FA00A073C8}">
   <dimension ref="A1:BQ40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C42" sqref="C42:O56"/>
     </sheetView>
   </sheetViews>
@@ -1914,1090 +3000,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62DAB86-723F-4530-A7B0-B6E7F6E2F1AF}">
-  <dimension ref="B1:N32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="38.375" customWidth="1"/>
-    <col min="9" max="9" width="38.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="37">
-        <v>1</v>
-      </c>
-      <c r="D2" s="37">
-        <v>2</v>
-      </c>
-      <c r="E2" s="37">
-        <v>3</v>
-      </c>
-      <c r="F2" s="37">
-        <v>4</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="37">
-        <v>1</v>
-      </c>
-      <c r="K2" s="37">
-        <v>2</v>
-      </c>
-      <c r="L2" s="37">
-        <v>3</v>
-      </c>
-      <c r="M2" s="37">
-        <v>4</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="34">
-        <v>4</v>
-      </c>
-      <c r="D3" s="34">
-        <v>3</v>
-      </c>
-      <c r="E3" s="34">
-        <v>4</v>
-      </c>
-      <c r="F3" s="34">
-        <v>3</v>
-      </c>
-      <c r="G3" s="39">
-        <f>AVERAGE(C3:F3)</f>
-        <v>3.5</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="34">
-        <v>3</v>
-      </c>
-      <c r="K3" s="34">
-        <v>4</v>
-      </c>
-      <c r="L3" s="34">
-        <v>4</v>
-      </c>
-      <c r="M3" s="34">
-        <v>4</v>
-      </c>
-      <c r="N3" s="39">
-        <f>AVERAGE(J3:M3)</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="34">
-        <v>3</v>
-      </c>
-      <c r="D4" s="34">
-        <v>2</v>
-      </c>
-      <c r="E4" s="34">
-        <v>3</v>
-      </c>
-      <c r="F4" s="34">
-        <v>3</v>
-      </c>
-      <c r="G4" s="39">
-        <f t="shared" ref="G4:G6" si="0">AVERAGE(C4:F4)</f>
-        <v>2.75</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="34">
-        <v>3</v>
-      </c>
-      <c r="K4" s="34">
-        <v>4</v>
-      </c>
-      <c r="L4" s="34">
-        <v>3</v>
-      </c>
-      <c r="M4" s="34">
-        <v>3</v>
-      </c>
-      <c r="N4" s="39">
-        <f t="shared" ref="N4:N7" si="1">AVERAGE(J4:M4)</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="34">
-        <v>4</v>
-      </c>
-      <c r="D5" s="34">
-        <v>2</v>
-      </c>
-      <c r="E5" s="34">
-        <v>3</v>
-      </c>
-      <c r="F5" s="34">
-        <v>3</v>
-      </c>
-      <c r="G5" s="39">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="34">
-        <v>3</v>
-      </c>
-      <c r="K5" s="34">
-        <v>3</v>
-      </c>
-      <c r="L5" s="34">
-        <v>4</v>
-      </c>
-      <c r="M5" s="34">
-        <v>3</v>
-      </c>
-      <c r="N5" s="39">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="34">
-        <v>2</v>
-      </c>
-      <c r="D6" s="34">
-        <v>1</v>
-      </c>
-      <c r="E6" s="34">
-        <v>2</v>
-      </c>
-      <c r="F6" s="34">
-        <v>2</v>
-      </c>
-      <c r="G6" s="39">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="34">
-        <v>3</v>
-      </c>
-      <c r="K6" s="34">
-        <v>4</v>
-      </c>
-      <c r="L6" s="34">
-        <v>2</v>
-      </c>
-      <c r="M6" s="34">
-        <v>3</v>
-      </c>
-      <c r="N6" s="39">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="34">
-        <v>3</v>
-      </c>
-      <c r="K7" s="34">
-        <v>4</v>
-      </c>
-      <c r="L7" s="34">
-        <v>3</v>
-      </c>
-      <c r="M7" s="34">
-        <v>3</v>
-      </c>
-      <c r="N7" s="39">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-    </row>
-    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="37">
-        <v>1</v>
-      </c>
-      <c r="D10" s="37">
-        <v>2</v>
-      </c>
-      <c r="E10" s="37">
-        <v>3</v>
-      </c>
-      <c r="F10" s="37">
-        <v>4</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="37">
-        <v>1</v>
-      </c>
-      <c r="K10" s="37">
-        <v>2</v>
-      </c>
-      <c r="L10" s="37">
-        <v>3</v>
-      </c>
-      <c r="M10" s="37">
-        <v>4</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="34">
-        <v>4</v>
-      </c>
-      <c r="D11" s="34">
-        <v>3</v>
-      </c>
-      <c r="E11" s="34">
-        <v>3</v>
-      </c>
-      <c r="F11" s="34">
-        <v>3</v>
-      </c>
-      <c r="G11" s="39">
-        <f>AVERAGE(C11:F11)</f>
-        <v>3.25</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="34">
-        <v>3</v>
-      </c>
-      <c r="K11" s="34">
-        <v>4</v>
-      </c>
-      <c r="L11" s="34">
-        <v>3</v>
-      </c>
-      <c r="M11" s="34">
-        <v>3</v>
-      </c>
-      <c r="N11" s="39">
-        <f>AVERAGE(J11:M11)</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="34">
-        <v>3</v>
-      </c>
-      <c r="D12" s="34">
-        <v>3</v>
-      </c>
-      <c r="E12" s="34">
-        <v>2</v>
-      </c>
-      <c r="F12" s="34">
-        <v>3</v>
-      </c>
-      <c r="G12" s="39">
-        <f t="shared" ref="G12:G15" si="2">AVERAGE(C12:F12)</f>
-        <v>2.75</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="34">
-        <v>3</v>
-      </c>
-      <c r="K12" s="34">
-        <v>3</v>
-      </c>
-      <c r="L12" s="34">
-        <v>3</v>
-      </c>
-      <c r="M12" s="34">
-        <v>3</v>
-      </c>
-      <c r="N12" s="39">
-        <f t="shared" ref="N12:N32" si="3">AVERAGE(J12:M12)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="34">
-        <v>2</v>
-      </c>
-      <c r="D13" s="34">
-        <v>0</v>
-      </c>
-      <c r="E13" s="34">
-        <v>1</v>
-      </c>
-      <c r="F13" s="34">
-        <v>2</v>
-      </c>
-      <c r="G13" s="39">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="34">
-        <v>2</v>
-      </c>
-      <c r="K13" s="34">
-        <v>3</v>
-      </c>
-      <c r="L13" s="34">
-        <v>2</v>
-      </c>
-      <c r="M13" s="34">
-        <v>2</v>
-      </c>
-      <c r="N13" s="39">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="34">
-        <v>2</v>
-      </c>
-      <c r="D14" s="34">
-        <v>3</v>
-      </c>
-      <c r="E14" s="34">
-        <v>1</v>
-      </c>
-      <c r="F14" s="34">
-        <v>3</v>
-      </c>
-      <c r="G14" s="39">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="34">
-        <v>3</v>
-      </c>
-      <c r="K14" s="34">
-        <v>3</v>
-      </c>
-      <c r="L14" s="34">
-        <v>3</v>
-      </c>
-      <c r="M14" s="34">
-        <v>2</v>
-      </c>
-      <c r="N14" s="39">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B15" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="34">
-        <v>1</v>
-      </c>
-      <c r="D15" s="34">
-        <v>1</v>
-      </c>
-      <c r="E15" s="34">
-        <v>3</v>
-      </c>
-      <c r="F15" s="34">
-        <v>1</v>
-      </c>
-      <c r="G15" s="39">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="39"/>
-    </row>
-    <row r="16" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="40">
-        <v>1</v>
-      </c>
-      <c r="D16" s="40">
-        <v>0</v>
-      </c>
-      <c r="E16" s="40">
-        <v>1</v>
-      </c>
-      <c r="F16" s="40">
-        <v>1</v>
-      </c>
-      <c r="G16" s="41">
-        <f>AVERAGE(C16:F16)</f>
-        <v>0.75</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
-    </row>
-    <row r="17" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G17" s="43"/>
-      <c r="N17" s="43"/>
-    </row>
-    <row r="18" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="37">
-        <v>1</v>
-      </c>
-      <c r="D18" s="37">
-        <v>2</v>
-      </c>
-      <c r="E18" s="37">
-        <v>3</v>
-      </c>
-      <c r="F18" s="37">
-        <v>4</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="37">
-        <v>1</v>
-      </c>
-      <c r="K18" s="37">
-        <v>2</v>
-      </c>
-      <c r="L18" s="37">
-        <v>3</v>
-      </c>
-      <c r="M18" s="37">
-        <v>4</v>
-      </c>
-      <c r="N18" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B19" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="34">
-        <v>4</v>
-      </c>
-      <c r="D19" s="34">
-        <v>1</v>
-      </c>
-      <c r="E19" s="34">
-        <v>3</v>
-      </c>
-      <c r="F19" s="34">
-        <v>4</v>
-      </c>
-      <c r="G19" s="39">
-        <f t="shared" ref="G18:G32" si="4">AVERAGE(C19:F19)</f>
-        <v>3</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="34">
-        <v>1</v>
-      </c>
-      <c r="K19" s="34">
-        <v>4</v>
-      </c>
-      <c r="L19" s="34">
-        <v>3</v>
-      </c>
-      <c r="M19" s="34">
-        <v>4</v>
-      </c>
-      <c r="N19" s="39">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B20" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="34">
-        <v>4</v>
-      </c>
-      <c r="D20" s="34">
-        <v>1</v>
-      </c>
-      <c r="E20" s="34">
-        <v>3</v>
-      </c>
-      <c r="F20" s="34">
-        <v>3</v>
-      </c>
-      <c r="G20" s="39">
-        <f t="shared" si="4"/>
-        <v>2.75</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="34">
-        <v>1</v>
-      </c>
-      <c r="K20" s="34">
-        <v>3</v>
-      </c>
-      <c r="L20" s="34">
-        <v>4</v>
-      </c>
-      <c r="M20" s="34">
-        <v>3</v>
-      </c>
-      <c r="N20" s="39">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="34">
-        <v>3</v>
-      </c>
-      <c r="D21" s="34">
-        <v>1</v>
-      </c>
-      <c r="E21" s="34">
-        <v>3</v>
-      </c>
-      <c r="F21" s="34">
-        <v>4</v>
-      </c>
-      <c r="G21" s="39">
-        <f t="shared" si="4"/>
-        <v>2.75</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="34">
-        <v>2</v>
-      </c>
-      <c r="K21" s="34">
-        <v>3</v>
-      </c>
-      <c r="L21" s="34">
-        <v>3</v>
-      </c>
-      <c r="M21" s="34">
-        <v>4</v>
-      </c>
-      <c r="N21" s="39">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B22" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="34">
-        <v>4</v>
-      </c>
-      <c r="D22" s="34">
-        <v>1</v>
-      </c>
-      <c r="E22" s="34">
-        <v>3</v>
-      </c>
-      <c r="F22" s="34">
-        <v>3</v>
-      </c>
-      <c r="G22" s="39">
-        <f t="shared" si="4"/>
-        <v>2.75</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="34">
-        <v>2</v>
-      </c>
-      <c r="K22" s="34">
-        <v>3</v>
-      </c>
-      <c r="L22" s="34">
-        <v>4</v>
-      </c>
-      <c r="M22" s="34">
-        <v>2</v>
-      </c>
-      <c r="N22" s="39">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="34">
-        <v>2</v>
-      </c>
-      <c r="K23" s="34">
-        <v>3</v>
-      </c>
-      <c r="L23" s="34">
-        <v>3</v>
-      </c>
-      <c r="M23" s="34">
-        <v>4</v>
-      </c>
-      <c r="N23" s="39">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="40">
-        <v>2</v>
-      </c>
-      <c r="K24" s="40">
-        <v>3</v>
-      </c>
-      <c r="L24" s="40">
-        <v>3</v>
-      </c>
-      <c r="M24" s="40">
-        <v>4</v>
-      </c>
-      <c r="N24" s="41">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G25" s="43"/>
-      <c r="N25" s="43"/>
-    </row>
-    <row r="26" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="37">
-        <v>1</v>
-      </c>
-      <c r="D26" s="37">
-        <v>2</v>
-      </c>
-      <c r="E26" s="37">
-        <v>3</v>
-      </c>
-      <c r="F26" s="37">
-        <v>4</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="37">
-        <v>1</v>
-      </c>
-      <c r="K26" s="37">
-        <v>2</v>
-      </c>
-      <c r="L26" s="37">
-        <v>3</v>
-      </c>
-      <c r="M26" s="37">
-        <v>4</v>
-      </c>
-      <c r="N26" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B27" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="34">
-        <v>4</v>
-      </c>
-      <c r="D27" s="34">
-        <v>3</v>
-      </c>
-      <c r="E27" s="34">
-        <v>4</v>
-      </c>
-      <c r="F27" s="34">
-        <v>4</v>
-      </c>
-      <c r="G27" s="39">
-        <f t="shared" si="4"/>
-        <v>3.75</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="34">
-        <v>4</v>
-      </c>
-      <c r="K27" s="34">
-        <v>4</v>
-      </c>
-      <c r="L27" s="34">
-        <v>4</v>
-      </c>
-      <c r="M27" s="34">
-        <v>3</v>
-      </c>
-      <c r="N27" s="39">
-        <f t="shared" si="3"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="34">
-        <v>3</v>
-      </c>
-      <c r="D28" s="34">
-        <v>3</v>
-      </c>
-      <c r="E28" s="34">
-        <v>4</v>
-      </c>
-      <c r="F28" s="34">
-        <v>2</v>
-      </c>
-      <c r="G28" s="39">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="34">
-        <v>2</v>
-      </c>
-      <c r="K28" s="34">
-        <v>3</v>
-      </c>
-      <c r="L28" s="34">
-        <v>3</v>
-      </c>
-      <c r="M28" s="34">
-        <v>3</v>
-      </c>
-      <c r="N28" s="39">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B29" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="34">
-        <v>3</v>
-      </c>
-      <c r="D29" s="34">
-        <v>3</v>
-      </c>
-      <c r="E29" s="34">
-        <v>4</v>
-      </c>
-      <c r="F29" s="34">
-        <v>3</v>
-      </c>
-      <c r="G29" s="39">
-        <f t="shared" si="4"/>
-        <v>3.25</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="34">
-        <v>2</v>
-      </c>
-      <c r="K29" s="34">
-        <v>3</v>
-      </c>
-      <c r="L29" s="34">
-        <v>3</v>
-      </c>
-      <c r="M29" s="34">
-        <v>3</v>
-      </c>
-      <c r="N29" s="39">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="34">
-        <v>4</v>
-      </c>
-      <c r="D30" s="34">
-        <v>2</v>
-      </c>
-      <c r="E30" s="34">
-        <v>4</v>
-      </c>
-      <c r="F30" s="34">
-        <v>3</v>
-      </c>
-      <c r="G30" s="39">
-        <f t="shared" si="4"/>
-        <v>3.25</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="34">
-        <v>2</v>
-      </c>
-      <c r="K30" s="34">
-        <v>3</v>
-      </c>
-      <c r="L30" s="34">
-        <v>2</v>
-      </c>
-      <c r="M30" s="34">
-        <v>4</v>
-      </c>
-      <c r="N30" s="39">
-        <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B31" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="34">
-        <v>3</v>
-      </c>
-      <c r="D31" s="34">
-        <v>4</v>
-      </c>
-      <c r="E31" s="34">
-        <v>4</v>
-      </c>
-      <c r="F31" s="34">
-        <v>4</v>
-      </c>
-      <c r="G31" s="39">
-        <f t="shared" si="4"/>
-        <v>3.75</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="39"/>
-    </row>
-    <row r="32" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="40">
-        <v>4</v>
-      </c>
-      <c r="D32" s="40">
-        <v>2</v>
-      </c>
-      <c r="E32" s="40">
-        <v>4</v>
-      </c>
-      <c r="F32" s="40">
-        <v>2</v>
-      </c>
-      <c r="G32" s="41">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="41"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/卒研アンケート.xlsx
+++ b/卒研アンケート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYNK\Desktop\卒研\sotuken_maeda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FABD66-E424-4790-A298-A6266EF0D16C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E3A5EF-579D-4090-97B6-4AAAA4AD69BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BB13E88-A158-442D-A307-E8D99E2129E3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="24">
   <si>
     <t>かんばん方式について理解を深められたと思いますか</t>
     <rPh sb="4" eb="6">
@@ -163,6 +163,48 @@
   <si>
     <t>Dチーム
 デジタル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一回目</t>
+    <rPh sb="0" eb="3">
+      <t>イッカイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二回目</t>
+    <rPh sb="0" eb="3">
+      <t>ニカイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DKG</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -355,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,6 +436,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62DAB86-723F-4530-A7B0-B6E7F6E2F1AF}">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -722,8 +776,8 @@
     <col min="9" max="9" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
@@ -761,8 +815,21 @@
       <c r="N2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="P2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -802,8 +869,21 @@
         <f>AVERAGE(J3:M3)</f>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="P3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -843,8 +923,21 @@
         <f t="shared" ref="N4:N7" si="1">AVERAGE(J4:M4)</f>
         <v>3.25</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="P4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -884,8 +977,21 @@
         <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="P5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
@@ -925,8 +1031,21 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="P6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -956,7 +1075,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -975,7 +1094,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -990,7 +1109,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1189,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1271,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1312,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:22" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1342,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="2:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
